--- a/biology/Botanique/Liste_des_espèces_du_genre_Festuca/Liste_des_espèces_du_genre_Festuca.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Festuca/Liste_des_espèces_du_genre_Festuca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Festuca</t>
+          <t>Liste_des_espèces_du_genre_Festuca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste des espèces du genre Festuca
-Le genre Festuca, le plus important et le plus diversifié de la famille des Poaceae, comprend plus de 600 espèces[1].
-Selon la base de données de The Plant List, 1566 espèces de Festuca ont été décrites, dont 664 sont des espèces acceptées, 793 des synonymes et 109 sont en attente d'évaluation[2].
-Toutefois la taxinomie de ce genre est contestée et certains auteurs définissent un genre Festuca ss (stricto sensu) limité au sous-genre Festuca subgen. Festuca, soit environ 430 espèces, tandis que le sous-genre Festuca subgen. Schedonorus est rattaché au genre voisin Lolium[3].
+Le genre Festuca, le plus important et le plus diversifié de la famille des Poaceae, comprend plus de 600 espèces.
+Selon la base de données de The Plant List, 1566 espèces de Festuca ont été décrites, dont 664 sont des espèces acceptées, 793 des synonymes et 109 sont en attente d'évaluation.
+Toutefois la taxinomie de ce genre est contestée et certains auteurs définissent un genre Festuca ss (stricto sensu) limité au sous-genre Festuca subgen. Festuca, soit environ 430 espèces, tandis que le sous-genre Festuca subgen. Schedonorus est rattaché au genre voisin Lolium.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Festuca</t>
+          <t>Liste_des_espèces_du_genre_Festuca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Sommaire :
 Haut – A
 B
